--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H2">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I2">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J2">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>143.1402611227751</v>
+        <v>107.772265871375</v>
       </c>
       <c r="R2">
-        <v>1288.262350104976</v>
+        <v>969.9503928423749</v>
       </c>
       <c r="S2">
-        <v>0.08551620104294129</v>
+        <v>0.07190994417905795</v>
       </c>
       <c r="T2">
-        <v>0.08551620104294129</v>
+        <v>0.07190994417905795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H3">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I3">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J3">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>11.08733222688422</v>
+        <v>9.475991438375001</v>
       </c>
       <c r="R3">
-        <v>99.78599004195799</v>
+        <v>85.28392294537501</v>
       </c>
       <c r="S3">
-        <v>0.006623898296027721</v>
+        <v>0.006322758548920575</v>
       </c>
       <c r="T3">
-        <v>0.006623898296027721</v>
+        <v>0.006322758548920576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H4">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I4">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J4">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>44.05227481945533</v>
+        <v>36.58543757925</v>
       </c>
       <c r="R4">
-        <v>396.470473375098</v>
+        <v>329.26893821325</v>
       </c>
       <c r="S4">
-        <v>0.02631812433699721</v>
+        <v>0.02441125973198128</v>
       </c>
       <c r="T4">
-        <v>0.02631812433699721</v>
+        <v>0.02441125973198128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H5">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I5">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J5">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>0.3333798239875556</v>
+        <v>1.686314903875</v>
       </c>
       <c r="R5">
-        <v>3.000418415888</v>
+        <v>15.176834134875</v>
       </c>
       <c r="S5">
-        <v>0.0001991709099044255</v>
+        <v>0.001125176404388589</v>
       </c>
       <c r="T5">
-        <v>0.0001991709099044255</v>
+        <v>0.001125176404388589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
         <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J6">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>612.6811493388594</v>
+        <v>539.7369226709488</v>
       </c>
       <c r="R6">
-        <v>5514.130344049736</v>
+        <v>4857.632304038539</v>
       </c>
       <c r="S6">
-        <v>0.3660337345419707</v>
+        <v>0.3601339515953639</v>
       </c>
       <c r="T6">
-        <v>0.3660337345419709</v>
+        <v>0.3601339515953639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
         <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J7">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
-        <v>47.4569446680181</v>
+        <v>47.45694466801812</v>
       </c>
       <c r="R7">
-        <v>427.112502012163</v>
+        <v>427.1125020121631</v>
       </c>
       <c r="S7">
-        <v>0.02835217421905522</v>
+        <v>0.03166516185211098</v>
       </c>
       <c r="T7">
-        <v>0.02835217421905523</v>
+        <v>0.03166516185211098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
         <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J8">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>188.5563024383837</v>
+        <v>183.2244254487674</v>
       </c>
       <c r="R8">
-        <v>1697.006721945453</v>
+        <v>1649.019829038906</v>
       </c>
       <c r="S8">
-        <v>0.1126490795863782</v>
+        <v>0.1222546273823901</v>
       </c>
       <c r="T8">
-        <v>0.1126490795863783</v>
+        <v>0.1222546273823901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
         <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J9">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>1.426960745529778</v>
+        <v>8.44527494631989</v>
       </c>
       <c r="R9">
-        <v>12.842646709768</v>
+        <v>76.00747451687901</v>
       </c>
       <c r="S9">
-        <v>0.0008525083092481091</v>
+        <v>0.005635023491957243</v>
       </c>
       <c r="T9">
-        <v>0.0008525083092481093</v>
+        <v>0.005635023491957244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H10">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>123.372460591448</v>
+        <v>127.4356429741446</v>
       </c>
       <c r="R10">
-        <v>1110.352145323032</v>
+        <v>1146.920786767301</v>
       </c>
       <c r="S10">
-        <v>0.0737063357321342</v>
+        <v>0.08503013181174177</v>
       </c>
       <c r="T10">
-        <v>0.07370633573213421</v>
+        <v>0.08503013181174177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H11">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>9.556161540409001</v>
+        <v>11.20491484523522</v>
       </c>
       <c r="R11">
-        <v>86.005453863681</v>
+        <v>100.844233607117</v>
       </c>
       <c r="S11">
-        <v>0.005709131903759071</v>
+        <v>0.007476365041945117</v>
       </c>
       <c r="T11">
-        <v>0.005709131903759072</v>
+        <v>0.007476365041945118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H12">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>37.96861551387901</v>
+        <v>43.26056173827267</v>
       </c>
       <c r="R12">
-        <v>341.7175396249111</v>
+        <v>389.345055644454</v>
       </c>
       <c r="S12">
-        <v>0.02268356737746929</v>
+        <v>0.02886516818219875</v>
       </c>
       <c r="T12">
-        <v>0.02268356737746929</v>
+        <v>0.02886516818219876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H13">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>0.2873397664240001</v>
+        <v>1.993988177706778</v>
       </c>
       <c r="R13">
-        <v>2.586057897816</v>
+        <v>17.945893599361</v>
       </c>
       <c r="S13">
-        <v>0.0001716652257052288</v>
+        <v>0.001330468255383323</v>
       </c>
       <c r="T13">
-        <v>0.0001716652257052288</v>
+        <v>0.001330468255383323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H14">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N14">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O14">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P14">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q14">
-        <v>327.1385418770409</v>
+        <v>263.6324087963732</v>
       </c>
       <c r="R14">
-        <v>2944.246876893368</v>
+        <v>2372.691679167358</v>
       </c>
       <c r="S14">
-        <v>0.1954421844463191</v>
+        <v>0.1759060334034704</v>
       </c>
       <c r="T14">
-        <v>0.1954421844463191</v>
+        <v>0.1759060334034704</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H15">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N15">
         <v>2.969483</v>
       </c>
       <c r="O15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q15">
-        <v>25.33943748291878</v>
+        <v>23.18016076245589</v>
       </c>
       <c r="R15">
-        <v>228.054937346269</v>
+        <v>208.621446862103</v>
       </c>
       <c r="S15">
-        <v>0.01513852506001572</v>
+        <v>0.01546672562753019</v>
       </c>
       <c r="T15">
-        <v>0.01513852506001572</v>
+        <v>0.01546672562753019</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H16">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N16">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O16">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P16">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q16">
-        <v>100.6788505048377</v>
+        <v>89.49526075102065</v>
       </c>
       <c r="R16">
-        <v>906.1096545435391</v>
+        <v>805.457346759186</v>
       </c>
       <c r="S16">
-        <v>0.06014850575939071</v>
+        <v>0.05971479909847074</v>
       </c>
       <c r="T16">
-        <v>0.06014850575939073</v>
+        <v>0.05971479909847074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H17">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N17">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q17">
-        <v>0.7619197328204445</v>
+        <v>4.12506182832211</v>
       </c>
       <c r="R17">
-        <v>6.857277595384001</v>
+        <v>37.125556454899</v>
       </c>
       <c r="S17">
-        <v>0.0004551932526836097</v>
+        <v>0.002752405393089108</v>
       </c>
       <c r="T17">
-        <v>0.0004551932526836098</v>
+        <v>0.002752405393089108</v>
       </c>
     </row>
   </sheetData>
